--- a/documentos/EC-Transações.xlsx
+++ b/documentos/EC-Transações.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>Manutenção de Cadastros</t>
   </si>
@@ -88,10 +88,13 @@
     <t>Compra</t>
   </si>
   <si>
-    <t>Denúnciar</t>
+    <t>Denunciar</t>
   </si>
   <si>
     <t>Feed</t>
+  </si>
+  <si>
+    <t>Assinatura</t>
   </si>
   <si>
     <t>Relatórios</t>
@@ -248,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -275,9 +278,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -286,8 +286,8 @@
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -611,7 +611,7 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="6">
@@ -633,7 +633,7 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="6">
@@ -657,19 +657,19 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="B7" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="6">
         <v>1.0</v>
       </c>
       <c r="F7" s="7"/>
@@ -679,19 +679,19 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="B8" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="6">
         <v>1.0</v>
       </c>
       <c r="F8" s="7"/>
@@ -701,19 +701,19 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="B9" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="6">
         <v>1.0</v>
       </c>
       <c r="F9" s="7"/>
@@ -723,19 +723,19 @@
       <c r="J9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="B10" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="6">
         <v>1.0</v>
       </c>
       <c r="F10" s="7"/>
@@ -745,19 +745,19 @@
       <c r="J10" s="9"/>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="B11" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="6">
         <v>1.0</v>
       </c>
       <c r="F11" s="7"/>
@@ -767,17 +767,17 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="2" t="s">
         <v>1</v>
       </c>
@@ -798,16 +798,16 @@
       <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="13" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="5"/>
@@ -832,7 +832,10 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="15"/>
+      <c r="J14" s="8">
+        <f>SUM(B14:I20)</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
@@ -848,17 +851,16 @@
       <c r="E15" s="6">
         <v>1.0</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="14">
+        <v>1.0</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="8">
-        <f>SUM(B14:I19)</f>
-        <v>21</v>
-      </c>
+      <c r="J15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="7"/>
@@ -874,11 +876,11 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="10">
+      <c r="C17" s="6">
         <v>1.0</v>
       </c>
       <c r="D17" s="7"/>
@@ -889,30 +891,30 @@
       <c r="G17" s="6">
         <v>1.0</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="6">
         <v>1.0</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="9"/>
     </row>
     <row r="18">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G18" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="H18" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="I18" s="10">
+      <c r="F18" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I18" s="6">
         <v>1.0</v>
       </c>
       <c r="J18" s="9"/>
@@ -936,128 +938,148 @@
       <c r="F19" s="6">
         <v>1.0</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="2" t="s">
+      <c r="B20" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+    <row r="22">
+      <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="H22" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="s">
+      <c r="I22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C22" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D22" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="E22" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8">
-        <f>SUM(B22:I23)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C23" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="B23" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1.0</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="5"/>
+      <c r="J23" s="8">
+        <f>SUM(B23:I24)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="17">
-        <f>J3+J15+J22</f>
-        <v>66</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="B24" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="16">
+        <f>J3+J14+J23</f>
+        <v>70</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J3:J11"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J3:J11"/>
-    <mergeCell ref="J15:J19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J14:J20"/>
+    <mergeCell ref="A21:I21"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
